--- a/trunk/Report 2/report 2-50900003- TTCNPM.xlsx
+++ b/trunk/Report 2/report 2-50900003- TTCNPM.xlsx
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Project</t>
   </si>
@@ -247,16 +247,13 @@
     <t>chuong trinh chay khong on dinh, khong biet cach khac phuc</t>
   </si>
   <si>
-    <t>17/3/2011</t>
-  </si>
-  <si>
-    <t>lam bai 5</t>
-  </si>
-  <si>
-    <t>chưa hoàn thành</t>
-  </si>
-  <si>
-    <t>sẽ để công việc sang tuần kế tiếp</t>
+    <t>viet thu vien bai5_1</t>
+  </si>
+  <si>
+    <t>17/3/2012</t>
+  </si>
+  <si>
+    <t>viet bai5_2</t>
   </si>
 </sst>
 </file>
@@ -443,14 +440,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -937,7 +934,7 @@
       <c r="B7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="8"/>
@@ -974,7 +971,7 @@
       <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1005,7 +1002,7 @@
       <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -1032,7 +1029,7 @@
       <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -1063,7 +1060,7 @@
       <c r="B11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -1087,45 +1084,57 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I12" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J12" s="6">
-        <v>2</v>
-      </c>
-      <c r="K12" s="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="K12" s="6">
+        <v>23</v>
+      </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="N12" s="6"/>
       <c r="O12" s="9"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="K13" s="6">
+        <v>15</v>
+      </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
